--- a/src/algorithms/plan_fact_module/BMZ.xlsx
+++ b/src/algorithms/plan_fact_module/BMZ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4800" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="6600" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="9">
   <si>
     <t>CarAmount</t>
   </si>
@@ -39,13 +39,13 @@
     <t>CargoEtsngName</t>
   </si>
   <si>
-    <t>КОНЦЕНТР МЕД</t>
-  </si>
-  <si>
     <t>Балхаш I</t>
   </si>
   <si>
-    <t>Актогай</t>
+    <t>МЕДЬ</t>
+  </si>
+  <si>
+    <t>Новороссийск (эксп.)</t>
   </si>
 </sst>
 </file>
@@ -140,16 +140,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -438,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E363"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:B63"/>
+    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="B333" sqref="B333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,1056 +469,6156 @@
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>44256</v>
+        <v>44197</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>44257</v>
+        <v>44198</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>44258</v>
+        <v>44199</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>44259</v>
+        <v>44200</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>44260</v>
+        <v>44201</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>44261</v>
+        <v>44202</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>44262</v>
+        <v>44203</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>44263</v>
+        <v>44204</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>44264</v>
+        <v>44205</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>44265</v>
+        <v>44206</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>44266</v>
+        <v>44207</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>44267</v>
+        <v>44208</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>44268</v>
+        <v>44209</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>44269</v>
+        <v>44210</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>44270</v>
+        <v>44211</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>44271</v>
+        <v>44212</v>
       </c>
       <c r="B17" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>44272</v>
+        <v>44213</v>
       </c>
       <c r="B18" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>44273</v>
+        <v>44214</v>
       </c>
       <c r="B19" s="1">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>44274</v>
+        <v>44215</v>
       </c>
       <c r="B20" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>44275</v>
+        <v>44216</v>
       </c>
       <c r="B21" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>44276</v>
+        <v>44217</v>
       </c>
       <c r="B22" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>44277</v>
+        <v>44218</v>
       </c>
       <c r="B23" s="1">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>44278</v>
+        <v>44219</v>
       </c>
       <c r="B24" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>44279</v>
+        <v>44220</v>
       </c>
       <c r="B25" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>44280</v>
+        <v>44221</v>
       </c>
       <c r="B26" s="1">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>44281</v>
+        <v>44222</v>
       </c>
       <c r="B27" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>44282</v>
+        <v>44223</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>44283</v>
+        <v>44224</v>
       </c>
       <c r="B29" s="1">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>44284</v>
+        <v>44225</v>
       </c>
       <c r="B30" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>44285</v>
+        <v>44226</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>44286</v>
+        <v>44227</v>
       </c>
       <c r="B32" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B33" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>44257</v>
+        <v>44229</v>
       </c>
       <c r="B34" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>44258</v>
+        <v>44230</v>
       </c>
       <c r="B35" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>44259</v>
+        <v>44231</v>
       </c>
       <c r="B36" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>44260</v>
+        <v>44232</v>
       </c>
       <c r="B37" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>44261</v>
+        <v>44233</v>
       </c>
       <c r="B38" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>44262</v>
+        <v>44234</v>
       </c>
       <c r="B39" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>44263</v>
+        <v>44235</v>
       </c>
       <c r="B40" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>44264</v>
+        <v>44236</v>
       </c>
       <c r="B41" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>44265</v>
-      </c>
-      <c r="B42" s="4">
-        <v>20</v>
+        <v>44237</v>
+      </c>
+      <c r="B42" s="1">
+        <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>44266</v>
-      </c>
-      <c r="B43" s="4">
+        <v>44238</v>
+      </c>
+      <c r="B43" s="1">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>44267</v>
-      </c>
-      <c r="B44" s="4">
-        <v>20</v>
+        <v>44239</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>44268</v>
-      </c>
-      <c r="B45" s="4">
-        <v>20</v>
+        <v>44240</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>44269</v>
-      </c>
-      <c r="B46" s="4">
+        <v>44241</v>
+      </c>
+      <c r="B46" s="1">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>44270</v>
+        <v>44242</v>
       </c>
       <c r="B47" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>44271</v>
+        <v>44243</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>44272</v>
+        <v>44244</v>
       </c>
       <c r="B49" s="1">
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>44273</v>
+        <v>44245</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>44274</v>
+        <v>44246</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>44275</v>
+        <v>44247</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>44276</v>
+        <v>44248</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>44277</v>
+        <v>44249</v>
       </c>
       <c r="B54" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>44278</v>
+        <v>44250</v>
       </c>
       <c r="B55" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>44279</v>
+        <v>44251</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>44280</v>
+        <v>44252</v>
       </c>
       <c r="B57" s="1">
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="B58" s="1">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>44282</v>
+        <v>44254</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>44283</v>
+        <v>44255</v>
       </c>
       <c r="B60" s="1">
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>44284</v>
+        <v>44256</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>44285</v>
+        <v>44257</v>
       </c>
       <c r="B62" s="1">
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
+        <v>44258</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>44259</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>44260</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>44261</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>44262</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>44263</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>44264</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>44265</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>44266</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>44267</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>44268</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>44269</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>44270</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>44271</v>
+      </c>
+      <c r="B76" s="1">
+        <v>41</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>44272</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>44273</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>44274</v>
+      </c>
+      <c r="B79" s="1">
+        <v>17</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>44275</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>44276</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>44277</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>44278</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>44280</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B86" s="1">
+        <v>17</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>44282</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>44285</v>
+      </c>
+      <c r="B90" s="1">
+        <v>21</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
         <v>44286</v>
       </c>
-      <c r="B63" s="1">
-        <v>0</v>
-      </c>
-      <c r="C63" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>6</v>
+      <c r="B91" s="1">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>44287</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B93" s="1">
+        <v>29</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>44289</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>44290</v>
+      </c>
+      <c r="B95" s="1">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>44291</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" t="s">
+        <v>4</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>44292</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>44293</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>44294</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" t="s">
+        <v>4</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>44295</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>44296</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>44298</v>
+      </c>
+      <c r="B103" s="1">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>44299</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>4</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>44300</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>44301</v>
+      </c>
+      <c r="B106" s="1">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>44302</v>
+      </c>
+      <c r="B107" s="1">
+        <v>30</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" t="s">
+        <v>4</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>44303</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" t="s">
+        <v>4</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
+        <v>44304</v>
+      </c>
+      <c r="B109" s="1">
+        <v>0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>44305</v>
+      </c>
+      <c r="B110" s="1">
+        <v>44</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" t="s">
+        <v>4</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <v>44306</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" t="s">
+        <v>4</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" t="s">
+        <v>4</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <v>44308</v>
+      </c>
+      <c r="B113" s="1">
+        <v>0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s">
+        <v>4</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <v>44309</v>
+      </c>
+      <c r="B114" s="1">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
+        <v>44310</v>
+      </c>
+      <c r="B115" s="1">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" t="s">
+        <v>4</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
+        <v>44311</v>
+      </c>
+      <c r="B116" s="1">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
+        <v>44312</v>
+      </c>
+      <c r="B117" s="1">
+        <v>0</v>
+      </c>
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" t="s">
+        <v>4</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>44313</v>
+      </c>
+      <c r="B118" s="1">
+        <v>34</v>
+      </c>
+      <c r="C118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" t="s">
+        <v>4</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
+        <v>44314</v>
+      </c>
+      <c r="B119" s="1">
+        <v>0</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" t="s">
+        <v>4</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
+        <v>44315</v>
+      </c>
+      <c r="B120" s="1">
+        <v>19</v>
+      </c>
+      <c r="C120" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" t="s">
+        <v>4</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
+        <v>44316</v>
+      </c>
+      <c r="B121" s="1">
+        <v>0</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" t="s">
+        <v>4</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
+        <v>44317</v>
+      </c>
+      <c r="B122" s="1">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" t="s">
+        <v>4</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A123" s="3">
+        <v>44318</v>
+      </c>
+      <c r="B123" s="1">
+        <v>0</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A124" s="3">
+        <v>44319</v>
+      </c>
+      <c r="B124" s="1">
+        <v>0</v>
+      </c>
+      <c r="C124" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" t="s">
+        <v>4</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A125" s="3">
+        <v>44320</v>
+      </c>
+      <c r="B125" s="1">
+        <v>0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" t="s">
+        <v>4</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A126" s="3">
+        <v>44321</v>
+      </c>
+      <c r="B126" s="1">
+        <v>0</v>
+      </c>
+      <c r="C126" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" t="s">
+        <v>4</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A127" s="3">
+        <v>44322</v>
+      </c>
+      <c r="B127" s="1">
+        <v>17</v>
+      </c>
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" t="s">
+        <v>4</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A128" s="3">
+        <v>44323</v>
+      </c>
+      <c r="B128" s="1">
+        <v>0</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" t="s">
+        <v>4</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A129" s="3">
+        <v>44324</v>
+      </c>
+      <c r="B129" s="1">
+        <v>0</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A130" s="3">
+        <v>44325</v>
+      </c>
+      <c r="B130" s="1">
+        <v>0</v>
+      </c>
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A131" s="3">
+        <v>44326</v>
+      </c>
+      <c r="B131" s="1">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A132" s="3">
+        <v>44327</v>
+      </c>
+      <c r="B132" s="1">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" t="s">
+        <v>4</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A133" s="3">
+        <v>44328</v>
+      </c>
+      <c r="B133" s="1">
+        <v>18</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" t="s">
+        <v>4</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A134" s="3">
+        <v>44329</v>
+      </c>
+      <c r="B134" s="1">
+        <v>0</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" t="s">
+        <v>4</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A135" s="3">
+        <v>44330</v>
+      </c>
+      <c r="B135" s="1">
+        <v>0</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" t="s">
+        <v>4</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A136" s="3">
+        <v>44331</v>
+      </c>
+      <c r="B136" s="1">
+        <v>0</v>
+      </c>
+      <c r="C136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" t="s">
+        <v>4</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A137" s="3">
+        <v>44332</v>
+      </c>
+      <c r="B137" s="1">
+        <v>0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A138" s="3">
+        <v>44333</v>
+      </c>
+      <c r="B138" s="1">
+        <v>25</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" t="s">
+        <v>4</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A139" s="3">
+        <v>44334</v>
+      </c>
+      <c r="B139" s="1">
+        <v>0</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" t="s">
+        <v>4</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A140" s="3">
+        <v>44335</v>
+      </c>
+      <c r="B140" s="1">
+        <v>0</v>
+      </c>
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" t="s">
+        <v>4</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A141" s="3">
+        <v>44336</v>
+      </c>
+      <c r="B141" s="1">
+        <v>0</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" t="s">
+        <v>4</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A142" s="3">
+        <v>44337</v>
+      </c>
+      <c r="B142" s="1">
+        <v>17</v>
+      </c>
+      <c r="C142" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" t="s">
+        <v>4</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A143" s="3">
+        <v>44338</v>
+      </c>
+      <c r="B143" s="1">
+        <v>0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="s">
+        <v>4</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A144" s="3">
+        <v>44339</v>
+      </c>
+      <c r="B144" s="1">
+        <v>0</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" t="s">
+        <v>4</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A145" s="3">
+        <v>44340</v>
+      </c>
+      <c r="B145" s="1">
+        <v>25</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" t="s">
+        <v>4</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A146" s="3">
+        <v>44341</v>
+      </c>
+      <c r="B146" s="1">
+        <v>0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" t="s">
+        <v>4</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A147" s="3">
+        <v>44342</v>
+      </c>
+      <c r="B147" s="1">
+        <v>0</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" t="s">
+        <v>4</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A148" s="3">
+        <v>44343</v>
+      </c>
+      <c r="B148" s="1">
+        <v>0</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" t="s">
+        <v>4</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A149" s="3">
+        <v>44344</v>
+      </c>
+      <c r="B149" s="1">
+        <v>27</v>
+      </c>
+      <c r="C149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" t="s">
+        <v>4</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A150" s="3">
+        <v>44345</v>
+      </c>
+      <c r="B150" s="1">
+        <v>0</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" t="s">
+        <v>4</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A151" s="3">
+        <v>44346</v>
+      </c>
+      <c r="B151" s="1">
+        <v>0</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" t="s">
+        <v>4</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A152" s="3">
+        <v>44347</v>
+      </c>
+      <c r="B152" s="1">
+        <v>0</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" t="s">
+        <v>4</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A153" s="3">
+        <v>44348</v>
+      </c>
+      <c r="B153" s="1">
+        <v>0</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" t="s">
+        <v>4</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A154" s="3">
+        <v>44349</v>
+      </c>
+      <c r="B154" s="1">
+        <v>0</v>
+      </c>
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" t="s">
+        <v>4</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A155" s="3">
+        <v>44350</v>
+      </c>
+      <c r="B155" s="1">
+        <v>0</v>
+      </c>
+      <c r="C155" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" t="s">
+        <v>4</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A156" s="3">
+        <v>44351</v>
+      </c>
+      <c r="B156" s="1">
+        <v>17</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" t="s">
+        <v>4</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A157" s="3">
+        <v>44352</v>
+      </c>
+      <c r="B157" s="1">
+        <v>0</v>
+      </c>
+      <c r="C157" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" t="s">
+        <v>4</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A158" s="3">
+        <v>44353</v>
+      </c>
+      <c r="B158" s="1">
+        <v>0</v>
+      </c>
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" t="s">
+        <v>4</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A159" s="3">
+        <v>44354</v>
+      </c>
+      <c r="B159" s="1">
+        <v>0</v>
+      </c>
+      <c r="C159" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" t="s">
+        <v>4</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A160" s="3">
+        <v>44355</v>
+      </c>
+      <c r="B160" s="1">
+        <v>0</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" t="s">
+        <v>4</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A161" s="3">
+        <v>44356</v>
+      </c>
+      <c r="B161" s="1">
+        <v>22</v>
+      </c>
+      <c r="C161" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" t="s">
+        <v>4</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A162" s="3">
+        <v>44357</v>
+      </c>
+      <c r="B162" s="1">
+        <v>0</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" t="s">
+        <v>4</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A163" s="3">
+        <v>44358</v>
+      </c>
+      <c r="B163" s="1">
+        <v>0</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" t="s">
+        <v>4</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A164" s="3">
+        <v>44359</v>
+      </c>
+      <c r="B164" s="1">
+        <v>0</v>
+      </c>
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" t="s">
+        <v>4</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A165" s="3">
+        <v>44360</v>
+      </c>
+      <c r="B165" s="1">
+        <v>0</v>
+      </c>
+      <c r="C165" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" t="s">
+        <v>4</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A166" s="3">
+        <v>44361</v>
+      </c>
+      <c r="B166" s="1">
+        <v>0</v>
+      </c>
+      <c r="C166" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" t="s">
+        <v>4</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A167" s="3">
+        <v>44362</v>
+      </c>
+      <c r="B167" s="1">
+        <v>0</v>
+      </c>
+      <c r="C167" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" t="s">
+        <v>4</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A168" s="3">
+        <v>44363</v>
+      </c>
+      <c r="B168" s="1">
+        <v>0</v>
+      </c>
+      <c r="C168" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" t="s">
+        <v>4</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A169" s="3">
+        <v>44364</v>
+      </c>
+      <c r="B169" s="1">
+        <v>0</v>
+      </c>
+      <c r="C169" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" t="s">
+        <v>4</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A170" s="3">
+        <v>44365</v>
+      </c>
+      <c r="B170" s="1">
+        <v>0</v>
+      </c>
+      <c r="C170" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" t="s">
+        <v>4</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A171" s="3">
+        <v>44366</v>
+      </c>
+      <c r="B171" s="1">
+        <v>0</v>
+      </c>
+      <c r="C171" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" t="s">
+        <v>4</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A172" s="3">
+        <v>44367</v>
+      </c>
+      <c r="B172" s="1">
+        <v>0</v>
+      </c>
+      <c r="C172" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" t="s">
+        <v>4</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A173" s="3">
+        <v>44368</v>
+      </c>
+      <c r="B173" s="1">
+        <v>30</v>
+      </c>
+      <c r="C173" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" t="s">
+        <v>4</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A174" s="3">
+        <v>44369</v>
+      </c>
+      <c r="B174" s="1">
+        <v>24</v>
+      </c>
+      <c r="C174" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" t="s">
+        <v>4</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A175" s="3">
+        <v>44370</v>
+      </c>
+      <c r="B175" s="1">
+        <v>0</v>
+      </c>
+      <c r="C175" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" t="s">
+        <v>4</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A176" s="3">
+        <v>44371</v>
+      </c>
+      <c r="B176" s="1">
+        <v>0</v>
+      </c>
+      <c r="C176" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" t="s">
+        <v>4</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A177" s="3">
+        <v>44372</v>
+      </c>
+      <c r="B177" s="1">
+        <v>17</v>
+      </c>
+      <c r="C177" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" t="s">
+        <v>4</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A178" s="3">
+        <v>44373</v>
+      </c>
+      <c r="B178" s="1">
+        <v>0</v>
+      </c>
+      <c r="C178" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" t="s">
+        <v>4</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A179" s="3">
+        <v>44374</v>
+      </c>
+      <c r="B179" s="1">
+        <v>0</v>
+      </c>
+      <c r="C179" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" t="s">
+        <v>4</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A180" s="3">
+        <v>44375</v>
+      </c>
+      <c r="B180" s="1">
+        <v>23</v>
+      </c>
+      <c r="C180" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" t="s">
+        <v>4</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A181" s="3">
+        <v>44376</v>
+      </c>
+      <c r="B181" s="1">
+        <v>27</v>
+      </c>
+      <c r="C181" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" t="s">
+        <v>4</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A182" s="3">
+        <v>44377</v>
+      </c>
+      <c r="B182" s="1">
+        <v>0</v>
+      </c>
+      <c r="C182" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" t="s">
+        <v>4</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A183" s="3">
+        <v>44197</v>
+      </c>
+      <c r="B183" s="1">
+        <v>0</v>
+      </c>
+      <c r="C183" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" t="s">
+        <v>8</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A184" s="3">
+        <v>44198</v>
+      </c>
+      <c r="B184" s="1">
+        <v>0</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A185" s="3">
+        <v>44199</v>
+      </c>
+      <c r="B185" s="1">
+        <v>0</v>
+      </c>
+      <c r="C185" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" t="s">
+        <v>8</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A186" s="3">
+        <v>44200</v>
+      </c>
+      <c r="B186" s="1">
+        <v>0</v>
+      </c>
+      <c r="C186" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" t="s">
+        <v>8</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A187" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B187" s="1">
+        <v>0</v>
+      </c>
+      <c r="C187" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" t="s">
+        <v>8</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A188" s="3">
+        <v>44202</v>
+      </c>
+      <c r="B188" s="1">
+        <v>0</v>
+      </c>
+      <c r="C188" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" t="s">
+        <v>8</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A189" s="3">
+        <v>44203</v>
+      </c>
+      <c r="B189" s="1">
+        <v>0</v>
+      </c>
+      <c r="C189" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" t="s">
+        <v>8</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A190" s="3">
+        <v>44204</v>
+      </c>
+      <c r="B190" s="1">
+        <v>0</v>
+      </c>
+      <c r="C190" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190" t="s">
+        <v>8</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A191" s="3">
+        <v>44205</v>
+      </c>
+      <c r="B191" s="1">
+        <v>0</v>
+      </c>
+      <c r="C191" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" t="s">
+        <v>8</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A192" s="3">
+        <v>44206</v>
+      </c>
+      <c r="B192" s="1">
+        <v>0</v>
+      </c>
+      <c r="C192" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" t="s">
+        <v>8</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A193" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B193" s="1">
+        <v>0</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="s">
+        <v>8</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A194" s="3">
+        <v>44208</v>
+      </c>
+      <c r="B194" s="1">
+        <v>0</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="s">
+        <v>8</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A195" s="3">
+        <v>44209</v>
+      </c>
+      <c r="B195" s="1">
+        <v>0</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="s">
+        <v>8</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A196" s="3">
+        <v>44210</v>
+      </c>
+      <c r="B196" s="1">
+        <v>0</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="s">
+        <v>8</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A197" s="3">
+        <v>44211</v>
+      </c>
+      <c r="B197" s="1">
+        <v>0</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="s">
+        <v>8</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A198" s="3">
+        <v>44212</v>
+      </c>
+      <c r="B198" s="1">
+        <v>0</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="s">
+        <v>8</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A199" s="3">
+        <v>44213</v>
+      </c>
+      <c r="B199" s="1">
+        <v>0</v>
+      </c>
+      <c r="C199" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" t="s">
+        <v>8</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A200" s="3">
+        <v>44214</v>
+      </c>
+      <c r="B200" s="1">
+        <v>0</v>
+      </c>
+      <c r="C200" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" t="s">
+        <v>8</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A201" s="3">
+        <v>44215</v>
+      </c>
+      <c r="B201" s="1">
+        <v>0</v>
+      </c>
+      <c r="C201" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" t="s">
+        <v>8</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A202" s="3">
+        <v>44216</v>
+      </c>
+      <c r="B202" s="1">
+        <v>0</v>
+      </c>
+      <c r="C202" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" t="s">
+        <v>8</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A203" s="3">
+        <v>44217</v>
+      </c>
+      <c r="B203" s="1">
+        <v>0</v>
+      </c>
+      <c r="C203" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" t="s">
+        <v>8</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A204" s="3">
+        <v>44218</v>
+      </c>
+      <c r="B204" s="1">
+        <v>0</v>
+      </c>
+      <c r="C204" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" t="s">
+        <v>8</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A205" s="3">
+        <v>44219</v>
+      </c>
+      <c r="B205" s="1">
+        <v>0</v>
+      </c>
+      <c r="C205" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" t="s">
+        <v>8</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A206" s="3">
+        <v>44220</v>
+      </c>
+      <c r="B206" s="1">
+        <v>0</v>
+      </c>
+      <c r="C206" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206" t="s">
+        <v>8</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A207" s="3">
+        <v>44221</v>
+      </c>
+      <c r="B207" s="1">
+        <v>0</v>
+      </c>
+      <c r="C207" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" t="s">
+        <v>8</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A208" s="3">
+        <v>44222</v>
+      </c>
+      <c r="B208" s="1">
+        <v>0</v>
+      </c>
+      <c r="C208" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" t="s">
+        <v>8</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A209" s="3">
+        <v>44223</v>
+      </c>
+      <c r="B209" s="1">
+        <v>0</v>
+      </c>
+      <c r="C209" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209" t="s">
+        <v>8</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A210" s="3">
+        <v>44224</v>
+      </c>
+      <c r="B210" s="1">
+        <v>0</v>
+      </c>
+      <c r="C210" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" t="s">
+        <v>8</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A211" s="3">
+        <v>44225</v>
+      </c>
+      <c r="B211" s="1">
+        <v>0</v>
+      </c>
+      <c r="C211" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" t="s">
+        <v>8</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A212" s="3">
+        <v>44226</v>
+      </c>
+      <c r="B212" s="1">
+        <v>0</v>
+      </c>
+      <c r="C212" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" t="s">
+        <v>8</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A213" s="3">
+        <v>44227</v>
+      </c>
+      <c r="B213" s="1">
+        <v>0</v>
+      </c>
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" t="s">
+        <v>8</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A214" s="3">
+        <v>44228</v>
+      </c>
+      <c r="B214" s="1">
+        <v>0</v>
+      </c>
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" t="s">
+        <v>8</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A215" s="3">
+        <v>44229</v>
+      </c>
+      <c r="B215" s="1">
+        <v>0</v>
+      </c>
+      <c r="C215" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" t="s">
+        <v>8</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A216" s="3">
+        <v>44230</v>
+      </c>
+      <c r="B216" s="1">
+        <v>0</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" t="s">
+        <v>8</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A217" s="3">
+        <v>44231</v>
+      </c>
+      <c r="B217" s="1">
+        <v>0</v>
+      </c>
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" t="s">
+        <v>8</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A218" s="3">
+        <v>44232</v>
+      </c>
+      <c r="B218" s="1">
+        <v>0</v>
+      </c>
+      <c r="C218" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" t="s">
+        <v>8</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A219" s="3">
+        <v>44233</v>
+      </c>
+      <c r="B219" s="1">
+        <v>0</v>
+      </c>
+      <c r="C219" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" t="s">
+        <v>8</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A220" s="3">
+        <v>44234</v>
+      </c>
+      <c r="B220" s="1">
+        <v>0</v>
+      </c>
+      <c r="C220" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" t="s">
+        <v>8</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A221" s="3">
+        <v>44235</v>
+      </c>
+      <c r="B221" s="1">
+        <v>0</v>
+      </c>
+      <c r="C221" t="s">
+        <v>6</v>
+      </c>
+      <c r="D221" t="s">
+        <v>8</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A222" s="3">
+        <v>44236</v>
+      </c>
+      <c r="B222" s="1">
+        <v>0</v>
+      </c>
+      <c r="C222" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" t="s">
+        <v>8</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A223" s="3">
+        <v>44237</v>
+      </c>
+      <c r="B223" s="1">
+        <v>0</v>
+      </c>
+      <c r="C223" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223" t="s">
+        <v>8</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A224" s="3">
+        <v>44238</v>
+      </c>
+      <c r="B224" s="1">
+        <v>0</v>
+      </c>
+      <c r="C224" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224" t="s">
+        <v>8</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A225" s="3">
+        <v>44239</v>
+      </c>
+      <c r="B225" s="1">
+        <v>0</v>
+      </c>
+      <c r="C225" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" t="s">
+        <v>8</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A226" s="3">
+        <v>44240</v>
+      </c>
+      <c r="B226" s="1">
+        <v>0</v>
+      </c>
+      <c r="C226" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226" t="s">
+        <v>8</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A227" s="3">
+        <v>44241</v>
+      </c>
+      <c r="B227" s="1">
+        <v>0</v>
+      </c>
+      <c r="C227" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" t="s">
+        <v>8</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A228" s="3">
+        <v>44242</v>
+      </c>
+      <c r="B228" s="1">
+        <v>0</v>
+      </c>
+      <c r="C228" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" t="s">
+        <v>8</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A229" s="3">
+        <v>44243</v>
+      </c>
+      <c r="B229" s="1">
+        <v>0</v>
+      </c>
+      <c r="C229" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229" t="s">
+        <v>8</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A230" s="3">
+        <v>44244</v>
+      </c>
+      <c r="B230" s="1">
+        <v>0</v>
+      </c>
+      <c r="C230" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" t="s">
+        <v>8</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A231" s="3">
+        <v>44245</v>
+      </c>
+      <c r="B231" s="1">
+        <v>0</v>
+      </c>
+      <c r="C231" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" t="s">
+        <v>8</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A232" s="3">
+        <v>44246</v>
+      </c>
+      <c r="B232" s="1">
+        <v>0</v>
+      </c>
+      <c r="C232" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232" t="s">
+        <v>8</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A233" s="3">
+        <v>44247</v>
+      </c>
+      <c r="B233" s="1">
+        <v>0</v>
+      </c>
+      <c r="C233" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" t="s">
+        <v>8</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A234" s="3">
+        <v>44248</v>
+      </c>
+      <c r="B234" s="1">
+        <v>0</v>
+      </c>
+      <c r="C234" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" t="s">
+        <v>8</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A235" s="3">
+        <v>44249</v>
+      </c>
+      <c r="B235" s="1">
+        <v>0</v>
+      </c>
+      <c r="C235" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235" t="s">
+        <v>8</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A236" s="3">
+        <v>44250</v>
+      </c>
+      <c r="B236" s="1">
+        <v>17</v>
+      </c>
+      <c r="C236" t="s">
+        <v>6</v>
+      </c>
+      <c r="D236" t="s">
+        <v>8</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A237" s="3">
+        <v>44251</v>
+      </c>
+      <c r="B237" s="1">
+        <v>0</v>
+      </c>
+      <c r="C237" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" t="s">
+        <v>8</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A238" s="3">
+        <v>44252</v>
+      </c>
+      <c r="B238" s="1">
+        <v>0</v>
+      </c>
+      <c r="C238" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238" t="s">
+        <v>8</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A239" s="3">
+        <v>44253</v>
+      </c>
+      <c r="B239" s="1">
+        <v>0</v>
+      </c>
+      <c r="C239" t="s">
+        <v>6</v>
+      </c>
+      <c r="D239" t="s">
+        <v>8</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A240" s="3">
+        <v>44254</v>
+      </c>
+      <c r="B240" s="1">
+        <v>0</v>
+      </c>
+      <c r="C240" t="s">
+        <v>6</v>
+      </c>
+      <c r="D240" t="s">
+        <v>8</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A241" s="3">
+        <v>44255</v>
+      </c>
+      <c r="B241" s="1">
+        <v>0</v>
+      </c>
+      <c r="C241" t="s">
+        <v>6</v>
+      </c>
+      <c r="D241" t="s">
+        <v>8</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A242" s="3">
+        <v>44256</v>
+      </c>
+      <c r="B242" s="1">
+        <v>0</v>
+      </c>
+      <c r="C242" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242" t="s">
+        <v>8</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A243" s="3">
+        <v>44257</v>
+      </c>
+      <c r="B243" s="1">
+        <v>0</v>
+      </c>
+      <c r="C243" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243" t="s">
+        <v>8</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A244" s="3">
+        <v>44258</v>
+      </c>
+      <c r="B244" s="1">
+        <v>0</v>
+      </c>
+      <c r="C244" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244" t="s">
+        <v>8</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A245" s="3">
+        <v>44259</v>
+      </c>
+      <c r="B245" s="1">
+        <v>0</v>
+      </c>
+      <c r="C245" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245" t="s">
+        <v>8</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A246" s="3">
+        <v>44260</v>
+      </c>
+      <c r="B246" s="1">
+        <v>0</v>
+      </c>
+      <c r="C246" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246" t="s">
+        <v>8</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A247" s="3">
+        <v>44261</v>
+      </c>
+      <c r="B247" s="1">
+        <v>0</v>
+      </c>
+      <c r="C247" t="s">
+        <v>6</v>
+      </c>
+      <c r="D247" t="s">
+        <v>8</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A248" s="3">
+        <v>44262</v>
+      </c>
+      <c r="B248" s="1">
+        <v>0</v>
+      </c>
+      <c r="C248" t="s">
+        <v>6</v>
+      </c>
+      <c r="D248" t="s">
+        <v>8</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A249" s="3">
+        <v>44263</v>
+      </c>
+      <c r="B249" s="1">
+        <v>0</v>
+      </c>
+      <c r="C249" t="s">
+        <v>6</v>
+      </c>
+      <c r="D249" t="s">
+        <v>8</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A250" s="3">
+        <v>44264</v>
+      </c>
+      <c r="B250" s="1">
+        <v>0</v>
+      </c>
+      <c r="C250" t="s">
+        <v>6</v>
+      </c>
+      <c r="D250" t="s">
+        <v>8</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A251" s="3">
+        <v>44265</v>
+      </c>
+      <c r="B251" s="1">
+        <v>0</v>
+      </c>
+      <c r="C251" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251" t="s">
+        <v>8</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A252" s="3">
+        <v>44266</v>
+      </c>
+      <c r="B252" s="1">
+        <v>0</v>
+      </c>
+      <c r="C252" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" t="s">
+        <v>8</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A253" s="3">
+        <v>44267</v>
+      </c>
+      <c r="B253" s="1">
+        <v>0</v>
+      </c>
+      <c r="C253" t="s">
+        <v>6</v>
+      </c>
+      <c r="D253" t="s">
+        <v>8</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A254" s="3">
+        <v>44268</v>
+      </c>
+      <c r="B254" s="1">
+        <v>0</v>
+      </c>
+      <c r="C254" t="s">
+        <v>6</v>
+      </c>
+      <c r="D254" t="s">
+        <v>8</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A255" s="3">
+        <v>44269</v>
+      </c>
+      <c r="B255" s="1">
+        <v>0</v>
+      </c>
+      <c r="C255" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255" t="s">
+        <v>8</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A256" s="3">
+        <v>44270</v>
+      </c>
+      <c r="B256" s="1">
+        <v>0</v>
+      </c>
+      <c r="C256" t="s">
+        <v>6</v>
+      </c>
+      <c r="D256" t="s">
+        <v>8</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A257" s="3">
+        <v>44271</v>
+      </c>
+      <c r="B257" s="1">
+        <v>0</v>
+      </c>
+      <c r="C257" t="s">
+        <v>6</v>
+      </c>
+      <c r="D257" t="s">
+        <v>8</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A258" s="3">
+        <v>44272</v>
+      </c>
+      <c r="B258" s="1">
+        <v>0</v>
+      </c>
+      <c r="C258" t="s">
+        <v>6</v>
+      </c>
+      <c r="D258" t="s">
+        <v>8</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A259" s="3">
+        <v>44273</v>
+      </c>
+      <c r="B259" s="1">
+        <v>0</v>
+      </c>
+      <c r="C259" t="s">
+        <v>6</v>
+      </c>
+      <c r="D259" t="s">
+        <v>8</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A260" s="3">
+        <v>44274</v>
+      </c>
+      <c r="B260" s="1">
+        <v>0</v>
+      </c>
+      <c r="C260" t="s">
+        <v>6</v>
+      </c>
+      <c r="D260" t="s">
+        <v>8</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A261" s="3">
+        <v>44275</v>
+      </c>
+      <c r="B261" s="1">
+        <v>0</v>
+      </c>
+      <c r="C261" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" t="s">
+        <v>8</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A262" s="3">
+        <v>44276</v>
+      </c>
+      <c r="B262" s="1">
+        <v>0</v>
+      </c>
+      <c r="C262" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262" t="s">
+        <v>8</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A263" s="3">
+        <v>44277</v>
+      </c>
+      <c r="B263" s="1">
+        <v>0</v>
+      </c>
+      <c r="C263" t="s">
+        <v>6</v>
+      </c>
+      <c r="D263" t="s">
+        <v>8</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A264" s="3">
+        <v>44278</v>
+      </c>
+      <c r="B264" s="1">
+        <v>0</v>
+      </c>
+      <c r="C264" t="s">
+        <v>6</v>
+      </c>
+      <c r="D264" t="s">
+        <v>8</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A265" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B265" s="1">
+        <v>0</v>
+      </c>
+      <c r="C265" t="s">
+        <v>6</v>
+      </c>
+      <c r="D265" t="s">
+        <v>8</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A266" s="3">
+        <v>44280</v>
+      </c>
+      <c r="B266" s="1">
+        <v>0</v>
+      </c>
+      <c r="C266" t="s">
+        <v>6</v>
+      </c>
+      <c r="D266" t="s">
+        <v>8</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A267" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B267" s="1">
+        <v>0</v>
+      </c>
+      <c r="C267" t="s">
+        <v>6</v>
+      </c>
+      <c r="D267" t="s">
+        <v>8</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A268" s="3">
+        <v>44282</v>
+      </c>
+      <c r="B268" s="1">
+        <v>0</v>
+      </c>
+      <c r="C268" t="s">
+        <v>6</v>
+      </c>
+      <c r="D268" t="s">
+        <v>8</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A269" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B269" s="1">
+        <v>0</v>
+      </c>
+      <c r="C269" t="s">
+        <v>6</v>
+      </c>
+      <c r="D269" t="s">
+        <v>8</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A270" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B270" s="1">
+        <v>0</v>
+      </c>
+      <c r="C270" t="s">
+        <v>6</v>
+      </c>
+      <c r="D270" t="s">
+        <v>8</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A271" s="3">
+        <v>44285</v>
+      </c>
+      <c r="B271" s="1">
+        <v>0</v>
+      </c>
+      <c r="C271" t="s">
+        <v>6</v>
+      </c>
+      <c r="D271" t="s">
+        <v>8</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A272" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B272" s="1">
+        <v>0</v>
+      </c>
+      <c r="C272" t="s">
+        <v>6</v>
+      </c>
+      <c r="D272" t="s">
+        <v>8</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A273" s="3">
+        <v>44287</v>
+      </c>
+      <c r="B273" s="1">
+        <v>0</v>
+      </c>
+      <c r="C273" t="s">
+        <v>6</v>
+      </c>
+      <c r="D273" t="s">
+        <v>8</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A274" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B274" s="1">
+        <v>0</v>
+      </c>
+      <c r="C274" t="s">
+        <v>6</v>
+      </c>
+      <c r="D274" t="s">
+        <v>8</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A275" s="3">
+        <v>44289</v>
+      </c>
+      <c r="B275" s="1">
+        <v>0</v>
+      </c>
+      <c r="C275" t="s">
+        <v>6</v>
+      </c>
+      <c r="D275" t="s">
+        <v>8</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A276" s="3">
+        <v>44290</v>
+      </c>
+      <c r="B276" s="1">
+        <v>0</v>
+      </c>
+      <c r="C276" t="s">
+        <v>6</v>
+      </c>
+      <c r="D276" t="s">
+        <v>8</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A277" s="3">
+        <v>44291</v>
+      </c>
+      <c r="B277" s="1">
+        <v>0</v>
+      </c>
+      <c r="C277" t="s">
+        <v>6</v>
+      </c>
+      <c r="D277" t="s">
+        <v>8</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A278" s="3">
+        <v>44292</v>
+      </c>
+      <c r="B278" s="1">
+        <v>0</v>
+      </c>
+      <c r="C278" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278" t="s">
+        <v>8</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A279" s="3">
+        <v>44293</v>
+      </c>
+      <c r="B279" s="1">
+        <v>0</v>
+      </c>
+      <c r="C279" t="s">
+        <v>6</v>
+      </c>
+      <c r="D279" t="s">
+        <v>8</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A280" s="3">
+        <v>44294</v>
+      </c>
+      <c r="B280" s="1">
+        <v>0</v>
+      </c>
+      <c r="C280" t="s">
+        <v>6</v>
+      </c>
+      <c r="D280" t="s">
+        <v>8</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A281" s="3">
+        <v>44295</v>
+      </c>
+      <c r="B281" s="1">
+        <v>0</v>
+      </c>
+      <c r="C281" t="s">
+        <v>6</v>
+      </c>
+      <c r="D281" t="s">
+        <v>8</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A282" s="3">
+        <v>44296</v>
+      </c>
+      <c r="B282" s="1">
+        <v>0</v>
+      </c>
+      <c r="C282" t="s">
+        <v>6</v>
+      </c>
+      <c r="D282" t="s">
+        <v>8</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A283" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B283" s="1">
+        <v>0</v>
+      </c>
+      <c r="C283" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283" t="s">
+        <v>8</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A284" s="3">
+        <v>44298</v>
+      </c>
+      <c r="B284" s="1">
+        <v>0</v>
+      </c>
+      <c r="C284" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284" t="s">
+        <v>8</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A285" s="3">
+        <v>44299</v>
+      </c>
+      <c r="B285" s="1">
+        <v>16</v>
+      </c>
+      <c r="C285" t="s">
+        <v>6</v>
+      </c>
+      <c r="D285" t="s">
+        <v>8</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A286" s="3">
+        <v>44300</v>
+      </c>
+      <c r="B286" s="1">
+        <v>0</v>
+      </c>
+      <c r="C286" t="s">
+        <v>6</v>
+      </c>
+      <c r="D286" t="s">
+        <v>8</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A287" s="3">
+        <v>44301</v>
+      </c>
+      <c r="B287" s="1">
+        <v>0</v>
+      </c>
+      <c r="C287" t="s">
+        <v>6</v>
+      </c>
+      <c r="D287" t="s">
+        <v>8</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A288" s="3">
+        <v>44302</v>
+      </c>
+      <c r="B288" s="1">
+        <v>0</v>
+      </c>
+      <c r="C288" t="s">
+        <v>6</v>
+      </c>
+      <c r="D288" t="s">
+        <v>8</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A289" s="3">
+        <v>44303</v>
+      </c>
+      <c r="B289" s="1">
+        <v>0</v>
+      </c>
+      <c r="C289" t="s">
+        <v>6</v>
+      </c>
+      <c r="D289" t="s">
+        <v>8</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A290" s="3">
+        <v>44304</v>
+      </c>
+      <c r="B290" s="1">
+        <v>0</v>
+      </c>
+      <c r="C290" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290" t="s">
+        <v>8</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A291" s="3">
+        <v>44305</v>
+      </c>
+      <c r="B291" s="1">
+        <v>0</v>
+      </c>
+      <c r="C291" t="s">
+        <v>6</v>
+      </c>
+      <c r="D291" t="s">
+        <v>8</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A292" s="3">
+        <v>44306</v>
+      </c>
+      <c r="B292" s="1">
+        <v>0</v>
+      </c>
+      <c r="C292" t="s">
+        <v>6</v>
+      </c>
+      <c r="D292" t="s">
+        <v>8</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A293" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B293" s="1">
+        <v>0</v>
+      </c>
+      <c r="C293" t="s">
+        <v>6</v>
+      </c>
+      <c r="D293" t="s">
+        <v>8</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A294" s="3">
+        <v>44308</v>
+      </c>
+      <c r="B294" s="1">
+        <v>0</v>
+      </c>
+      <c r="C294" t="s">
+        <v>6</v>
+      </c>
+      <c r="D294" t="s">
+        <v>8</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A295" s="3">
+        <v>44309</v>
+      </c>
+      <c r="B295" s="1">
+        <v>0</v>
+      </c>
+      <c r="C295" t="s">
+        <v>6</v>
+      </c>
+      <c r="D295" t="s">
+        <v>8</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A296" s="3">
+        <v>44310</v>
+      </c>
+      <c r="B296" s="1">
+        <v>0</v>
+      </c>
+      <c r="C296" t="s">
+        <v>6</v>
+      </c>
+      <c r="D296" t="s">
+        <v>8</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A297" s="3">
+        <v>44311</v>
+      </c>
+      <c r="B297" s="1">
+        <v>0</v>
+      </c>
+      <c r="C297" t="s">
+        <v>6</v>
+      </c>
+      <c r="D297" t="s">
+        <v>8</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A298" s="3">
+        <v>44312</v>
+      </c>
+      <c r="B298" s="1">
+        <v>0</v>
+      </c>
+      <c r="C298" t="s">
+        <v>6</v>
+      </c>
+      <c r="D298" t="s">
+        <v>8</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A299" s="3">
+        <v>44313</v>
+      </c>
+      <c r="B299" s="1">
+        <v>0</v>
+      </c>
+      <c r="C299" t="s">
+        <v>6</v>
+      </c>
+      <c r="D299" t="s">
+        <v>8</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A300" s="3">
+        <v>44314</v>
+      </c>
+      <c r="B300" s="1">
+        <v>0</v>
+      </c>
+      <c r="C300" t="s">
+        <v>6</v>
+      </c>
+      <c r="D300" t="s">
+        <v>8</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A301" s="3">
+        <v>44315</v>
+      </c>
+      <c r="B301" s="1">
+        <v>0</v>
+      </c>
+      <c r="C301" t="s">
+        <v>6</v>
+      </c>
+      <c r="D301" t="s">
+        <v>8</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A302" s="3">
+        <v>44316</v>
+      </c>
+      <c r="B302" s="1">
+        <v>0</v>
+      </c>
+      <c r="C302" t="s">
+        <v>6</v>
+      </c>
+      <c r="D302" t="s">
+        <v>8</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A303" s="3">
+        <v>44317</v>
+      </c>
+      <c r="B303" s="1">
+        <v>0</v>
+      </c>
+      <c r="C303" t="s">
+        <v>6</v>
+      </c>
+      <c r="D303" t="s">
+        <v>8</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A304" s="3">
+        <v>44318</v>
+      </c>
+      <c r="B304" s="1">
+        <v>0</v>
+      </c>
+      <c r="C304" t="s">
+        <v>6</v>
+      </c>
+      <c r="D304" t="s">
+        <v>8</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A305" s="3">
+        <v>44319</v>
+      </c>
+      <c r="B305" s="1">
+        <v>0</v>
+      </c>
+      <c r="C305" t="s">
+        <v>6</v>
+      </c>
+      <c r="D305" t="s">
+        <v>8</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A306" s="3">
+        <v>44320</v>
+      </c>
+      <c r="B306" s="1">
+        <v>0</v>
+      </c>
+      <c r="C306" t="s">
+        <v>6</v>
+      </c>
+      <c r="D306" t="s">
+        <v>8</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A307" s="3">
+        <v>44321</v>
+      </c>
+      <c r="B307" s="1">
+        <v>0</v>
+      </c>
+      <c r="C307" t="s">
+        <v>6</v>
+      </c>
+      <c r="D307" t="s">
+        <v>8</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A308" s="3">
+        <v>44322</v>
+      </c>
+      <c r="B308" s="1">
+        <v>0</v>
+      </c>
+      <c r="C308" t="s">
+        <v>6</v>
+      </c>
+      <c r="D308" t="s">
+        <v>8</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A309" s="3">
+        <v>44323</v>
+      </c>
+      <c r="B309" s="1">
+        <v>0</v>
+      </c>
+      <c r="C309" t="s">
+        <v>6</v>
+      </c>
+      <c r="D309" t="s">
+        <v>8</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A310" s="3">
+        <v>44324</v>
+      </c>
+      <c r="B310" s="1">
+        <v>0</v>
+      </c>
+      <c r="C310" t="s">
+        <v>6</v>
+      </c>
+      <c r="D310" t="s">
+        <v>8</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A311" s="3">
+        <v>44325</v>
+      </c>
+      <c r="B311" s="1">
+        <v>0</v>
+      </c>
+      <c r="C311" t="s">
+        <v>6</v>
+      </c>
+      <c r="D311" t="s">
+        <v>8</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A312" s="3">
+        <v>44326</v>
+      </c>
+      <c r="B312" s="1">
+        <v>0</v>
+      </c>
+      <c r="C312" t="s">
+        <v>6</v>
+      </c>
+      <c r="D312" t="s">
+        <v>8</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A313" s="3">
+        <v>44327</v>
+      </c>
+      <c r="B313" s="1">
+        <v>0</v>
+      </c>
+      <c r="C313" t="s">
+        <v>6</v>
+      </c>
+      <c r="D313" t="s">
+        <v>8</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A314" s="3">
+        <v>44328</v>
+      </c>
+      <c r="B314" s="1">
+        <v>0</v>
+      </c>
+      <c r="C314" t="s">
+        <v>6</v>
+      </c>
+      <c r="D314" t="s">
+        <v>8</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A315" s="3">
+        <v>44329</v>
+      </c>
+      <c r="B315" s="1">
+        <v>0</v>
+      </c>
+      <c r="C315" t="s">
+        <v>6</v>
+      </c>
+      <c r="D315" t="s">
+        <v>8</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A316" s="3">
+        <v>44330</v>
+      </c>
+      <c r="B316" s="1">
+        <v>0</v>
+      </c>
+      <c r="C316" t="s">
+        <v>6</v>
+      </c>
+      <c r="D316" t="s">
+        <v>8</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A317" s="3">
+        <v>44331</v>
+      </c>
+      <c r="B317" s="1">
+        <v>0</v>
+      </c>
+      <c r="C317" t="s">
+        <v>6</v>
+      </c>
+      <c r="D317" t="s">
+        <v>8</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A318" s="3">
+        <v>44332</v>
+      </c>
+      <c r="B318" s="1">
+        <v>0</v>
+      </c>
+      <c r="C318" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318" t="s">
+        <v>8</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A319" s="3">
+        <v>44333</v>
+      </c>
+      <c r="B319" s="1">
+        <v>0</v>
+      </c>
+      <c r="C319" t="s">
+        <v>6</v>
+      </c>
+      <c r="D319" t="s">
+        <v>8</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A320" s="3">
+        <v>44334</v>
+      </c>
+      <c r="B320" s="1">
+        <v>0</v>
+      </c>
+      <c r="C320" t="s">
+        <v>6</v>
+      </c>
+      <c r="D320" t="s">
+        <v>8</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A321" s="3">
+        <v>44335</v>
+      </c>
+      <c r="B321" s="1">
+        <v>0</v>
+      </c>
+      <c r="C321" t="s">
+        <v>6</v>
+      </c>
+      <c r="D321" t="s">
+        <v>8</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A322" s="3">
+        <v>44336</v>
+      </c>
+      <c r="B322" s="1">
+        <v>0</v>
+      </c>
+      <c r="C322" t="s">
+        <v>6</v>
+      </c>
+      <c r="D322" t="s">
+        <v>8</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A323" s="3">
+        <v>44337</v>
+      </c>
+      <c r="B323" s="1">
+        <v>0</v>
+      </c>
+      <c r="C323" t="s">
+        <v>6</v>
+      </c>
+      <c r="D323" t="s">
+        <v>8</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A324" s="3">
+        <v>44338</v>
+      </c>
+      <c r="B324" s="1">
+        <v>0</v>
+      </c>
+      <c r="C324" t="s">
+        <v>6</v>
+      </c>
+      <c r="D324" t="s">
+        <v>8</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A325" s="3">
+        <v>44339</v>
+      </c>
+      <c r="B325" s="1">
+        <v>0</v>
+      </c>
+      <c r="C325" t="s">
+        <v>6</v>
+      </c>
+      <c r="D325" t="s">
+        <v>8</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A326" s="3">
+        <v>44340</v>
+      </c>
+      <c r="B326" s="1">
+        <v>0</v>
+      </c>
+      <c r="C326" t="s">
+        <v>6</v>
+      </c>
+      <c r="D326" t="s">
+        <v>8</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A327" s="3">
+        <v>44341</v>
+      </c>
+      <c r="B327" s="1">
+        <v>16</v>
+      </c>
+      <c r="C327" t="s">
+        <v>6</v>
+      </c>
+      <c r="D327" t="s">
+        <v>8</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A328" s="3">
+        <v>44342</v>
+      </c>
+      <c r="B328" s="1">
+        <v>0</v>
+      </c>
+      <c r="C328" t="s">
+        <v>6</v>
+      </c>
+      <c r="D328" t="s">
+        <v>8</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A329" s="3">
+        <v>44343</v>
+      </c>
+      <c r="B329" s="1">
+        <v>0</v>
+      </c>
+      <c r="C329" t="s">
+        <v>6</v>
+      </c>
+      <c r="D329" t="s">
+        <v>8</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A330" s="3">
+        <v>44344</v>
+      </c>
+      <c r="B330" s="1">
+        <v>0</v>
+      </c>
+      <c r="C330" t="s">
+        <v>6</v>
+      </c>
+      <c r="D330" t="s">
+        <v>8</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A331" s="3">
+        <v>44345</v>
+      </c>
+      <c r="B331" s="1">
+        <v>0</v>
+      </c>
+      <c r="C331" t="s">
+        <v>6</v>
+      </c>
+      <c r="D331" t="s">
+        <v>8</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A332" s="3">
+        <v>44346</v>
+      </c>
+      <c r="B332" s="1">
+        <v>0</v>
+      </c>
+      <c r="C332" t="s">
+        <v>6</v>
+      </c>
+      <c r="D332" t="s">
+        <v>8</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A333" s="3">
+        <v>44347</v>
+      </c>
+      <c r="B333" s="1">
+        <v>15</v>
+      </c>
+      <c r="C333" t="s">
+        <v>6</v>
+      </c>
+      <c r="D333" t="s">
+        <v>8</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A334" s="3">
+        <v>44348</v>
+      </c>
+      <c r="B334" s="1">
+        <v>0</v>
+      </c>
+      <c r="C334" t="s">
+        <v>6</v>
+      </c>
+      <c r="D334" t="s">
+        <v>8</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A335" s="3">
+        <v>44349</v>
+      </c>
+      <c r="B335" s="1">
+        <v>0</v>
+      </c>
+      <c r="C335" t="s">
+        <v>6</v>
+      </c>
+      <c r="D335" t="s">
+        <v>8</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A336" s="3">
+        <v>44350</v>
+      </c>
+      <c r="B336" s="1">
+        <v>0</v>
+      </c>
+      <c r="C336" t="s">
+        <v>6</v>
+      </c>
+      <c r="D336" t="s">
+        <v>8</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A337" s="3">
+        <v>44351</v>
+      </c>
+      <c r="B337" s="1">
+        <v>0</v>
+      </c>
+      <c r="C337" t="s">
+        <v>6</v>
+      </c>
+      <c r="D337" t="s">
+        <v>8</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A338" s="3">
+        <v>44352</v>
+      </c>
+      <c r="B338" s="1">
+        <v>0</v>
+      </c>
+      <c r="C338" t="s">
+        <v>6</v>
+      </c>
+      <c r="D338" t="s">
+        <v>8</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A339" s="3">
+        <v>44353</v>
+      </c>
+      <c r="B339" s="1">
+        <v>0</v>
+      </c>
+      <c r="C339" t="s">
+        <v>6</v>
+      </c>
+      <c r="D339" t="s">
+        <v>8</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A340" s="3">
+        <v>44354</v>
+      </c>
+      <c r="B340" s="1">
+        <v>0</v>
+      </c>
+      <c r="C340" t="s">
+        <v>6</v>
+      </c>
+      <c r="D340" t="s">
+        <v>8</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A341" s="3">
+        <v>44355</v>
+      </c>
+      <c r="B341" s="1">
+        <v>0</v>
+      </c>
+      <c r="C341" t="s">
+        <v>6</v>
+      </c>
+      <c r="D341" t="s">
+        <v>8</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A342" s="3">
+        <v>44356</v>
+      </c>
+      <c r="B342" s="1">
+        <v>0</v>
+      </c>
+      <c r="C342" t="s">
+        <v>6</v>
+      </c>
+      <c r="D342" t="s">
+        <v>8</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A343" s="3">
+        <v>44357</v>
+      </c>
+      <c r="B343" s="1">
+        <v>0</v>
+      </c>
+      <c r="C343" t="s">
+        <v>6</v>
+      </c>
+      <c r="D343" t="s">
+        <v>8</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A344" s="3">
+        <v>44358</v>
+      </c>
+      <c r="B344" s="1">
+        <v>0</v>
+      </c>
+      <c r="C344" t="s">
+        <v>6</v>
+      </c>
+      <c r="D344" t="s">
+        <v>8</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A345" s="3">
+        <v>44359</v>
+      </c>
+      <c r="B345" s="1">
+        <v>0</v>
+      </c>
+      <c r="C345" t="s">
+        <v>6</v>
+      </c>
+      <c r="D345" t="s">
+        <v>8</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A346" s="3">
+        <v>44360</v>
+      </c>
+      <c r="B346" s="1">
+        <v>0</v>
+      </c>
+      <c r="C346" t="s">
+        <v>6</v>
+      </c>
+      <c r="D346" t="s">
+        <v>8</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A347" s="3">
+        <v>44361</v>
+      </c>
+      <c r="B347" s="1">
+        <v>0</v>
+      </c>
+      <c r="C347" t="s">
+        <v>6</v>
+      </c>
+      <c r="D347" t="s">
+        <v>8</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A348" s="3">
+        <v>44362</v>
+      </c>
+      <c r="B348" s="1">
+        <v>0</v>
+      </c>
+      <c r="C348" t="s">
+        <v>6</v>
+      </c>
+      <c r="D348" t="s">
+        <v>8</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A349" s="3">
+        <v>44363</v>
+      </c>
+      <c r="B349" s="1">
+        <v>0</v>
+      </c>
+      <c r="C349" t="s">
+        <v>6</v>
+      </c>
+      <c r="D349" t="s">
+        <v>8</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A350" s="3">
+        <v>44364</v>
+      </c>
+      <c r="B350" s="1">
+        <v>0</v>
+      </c>
+      <c r="C350" t="s">
+        <v>6</v>
+      </c>
+      <c r="D350" t="s">
+        <v>8</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A351" s="3">
+        <v>44365</v>
+      </c>
+      <c r="B351" s="1">
+        <v>0</v>
+      </c>
+      <c r="C351" t="s">
+        <v>6</v>
+      </c>
+      <c r="D351" t="s">
+        <v>8</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A352" s="3">
+        <v>44366</v>
+      </c>
+      <c r="B352" s="1">
+        <v>0</v>
+      </c>
+      <c r="C352" t="s">
+        <v>6</v>
+      </c>
+      <c r="D352" t="s">
+        <v>8</v>
+      </c>
+      <c r="E352" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A353" s="3">
+        <v>44367</v>
+      </c>
+      <c r="B353" s="1">
+        <v>0</v>
+      </c>
+      <c r="C353" t="s">
+        <v>6</v>
+      </c>
+      <c r="D353" t="s">
+        <v>8</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A354" s="3">
+        <v>44368</v>
+      </c>
+      <c r="B354" s="1">
+        <v>0</v>
+      </c>
+      <c r="C354" t="s">
+        <v>6</v>
+      </c>
+      <c r="D354" t="s">
+        <v>8</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A355" s="3">
+        <v>44369</v>
+      </c>
+      <c r="B355" s="1">
+        <v>0</v>
+      </c>
+      <c r="C355" t="s">
+        <v>6</v>
+      </c>
+      <c r="D355" t="s">
+        <v>8</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A356" s="3">
+        <v>44370</v>
+      </c>
+      <c r="B356" s="1">
+        <v>0</v>
+      </c>
+      <c r="C356" t="s">
+        <v>6</v>
+      </c>
+      <c r="D356" t="s">
+        <v>8</v>
+      </c>
+      <c r="E356" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A357" s="3">
+        <v>44371</v>
+      </c>
+      <c r="B357" s="1">
+        <v>0</v>
+      </c>
+      <c r="C357" t="s">
+        <v>6</v>
+      </c>
+      <c r="D357" t="s">
+        <v>8</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A358" s="3">
+        <v>44372</v>
+      </c>
+      <c r="B358" s="1">
+        <v>0</v>
+      </c>
+      <c r="C358" t="s">
+        <v>6</v>
+      </c>
+      <c r="D358" t="s">
+        <v>8</v>
+      </c>
+      <c r="E358" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A359" s="3">
+        <v>44373</v>
+      </c>
+      <c r="B359" s="1">
+        <v>0</v>
+      </c>
+      <c r="C359" t="s">
+        <v>6</v>
+      </c>
+      <c r="D359" t="s">
+        <v>8</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A360" s="3">
+        <v>44374</v>
+      </c>
+      <c r="B360" s="1">
+        <v>0</v>
+      </c>
+      <c r="C360" t="s">
+        <v>6</v>
+      </c>
+      <c r="D360" t="s">
+        <v>8</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A361" s="3">
+        <v>44375</v>
+      </c>
+      <c r="B361" s="1">
+        <v>0</v>
+      </c>
+      <c r="C361" t="s">
+        <v>6</v>
+      </c>
+      <c r="D361" t="s">
+        <v>8</v>
+      </c>
+      <c r="E361" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A362" s="3">
+        <v>44376</v>
+      </c>
+      <c r="B362" s="1">
+        <v>0</v>
+      </c>
+      <c r="C362" t="s">
+        <v>6</v>
+      </c>
+      <c r="D362" t="s">
+        <v>8</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A363" s="3">
+        <v>44377</v>
+      </c>
+      <c r="B363" s="1">
+        <v>0</v>
+      </c>
+      <c r="C363" t="s">
+        <v>6</v>
+      </c>
+      <c r="D363" t="s">
+        <v>8</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/algorithms/plan_fact_module/BMZ.xlsx
+++ b/src/algorithms/plan_fact_module/BMZ.xlsx
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="B333" sqref="B333"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="E243" sqref="E243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/algorithms/plan_fact_module/BMZ.xlsx
+++ b/src/algorithms/plan_fact_module/BMZ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7200" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="9000" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="9">
   <si>
     <t>CarAmount</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>МЕДЬ</t>
+  </si>
+  <si>
+    <t>Новороссийск (эксп.)</t>
   </si>
 </sst>
 </file>
@@ -137,7 +140,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -146,6 +149,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal 3" xfId="5"/>
@@ -432,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E363"/>
+  <dimension ref="A1:F363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,7 +451,7 @@
     <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -464,9 +468,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -481,9 +485,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>44379</v>
+        <v>44410</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -498,12 +502,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>44380</v>
+        <v>44411</v>
       </c>
       <c r="B4" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -515,9 +519,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>44381</v>
+        <v>44412</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -532,9 +536,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>44382</v>
+        <v>44413</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -549,9 +553,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>44383</v>
+        <v>44414</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -566,9 +570,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>44384</v>
+        <v>44415</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -583,9 +587,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>44385</v>
+        <v>44416</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -600,12 +604,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>44386</v>
+        <v>44417</v>
       </c>
       <c r="B10" s="1">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -616,10 +620,11 @@
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>44387</v>
+        <v>44418</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -633,10 +638,11 @@
       <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>44388</v>
+        <v>44419</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -650,10 +656,11 @@
       <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>44389</v>
+        <v>44420</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -667,10 +674,11 @@
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>44390</v>
+        <v>44421</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -684,10 +692,11 @@
       <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>44391</v>
+        <v>44422</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -701,10 +710,11 @@
       <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>44392</v>
+        <v>44423</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -718,13 +728,14 @@
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>44393</v>
+        <v>44424</v>
       </c>
       <c r="B17" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -735,10 +746,11 @@
       <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>44394</v>
+        <v>44425</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -752,10 +764,11 @@
       <c r="E18" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>44395</v>
+        <v>44426</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -769,31 +782,33 @@
       <c r="E19" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>44396</v>
+        <v>44427</v>
       </c>
       <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>44428</v>
+      </c>
+      <c r="B21" s="1">
         <v>14</v>
       </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>44397</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
       <c r="C21" t="s">
         <v>6</v>
       </c>
@@ -804,9 +819,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>44398</v>
+        <v>44429</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -821,9 +836,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>44399</v>
+        <v>44430</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -838,9 +853,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>44400</v>
+        <v>44431</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -855,9 +870,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>44401</v>
+        <v>44432</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -872,9 +887,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>44402</v>
+        <v>44433</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -889,12 +904,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>44403</v>
+        <v>44434</v>
       </c>
       <c r="B27" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -906,12 +921,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>44404</v>
+        <v>44435</v>
       </c>
       <c r="B28" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -923,9 +938,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>44405</v>
+        <v>44436</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -940,9 +955,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>44406</v>
+        <v>44437</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -957,12 +972,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>44407</v>
+        <v>44438</v>
       </c>
       <c r="B31" s="1">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -974,12 +989,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B32" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -992,9 +1007,21 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="1"/>
-      <c r="E33" s="2"/>
+      <c r="A33" s="3">
+        <v>44425</v>
+      </c>
+      <c r="B33" s="1">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>

--- a/src/algorithms/plan_fact_module/BMZ.xlsx
+++ b/src/algorithms/plan_fact_module/BMZ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9000" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="9600" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="8">
   <si>
     <t>CarAmount</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>МЕДЬ</t>
-  </si>
-  <si>
-    <t>Новороссийск (эксп.)</t>
   </si>
 </sst>
 </file>
@@ -438,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,7 +467,7 @@
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -487,7 +484,7 @@
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>44410</v>
+        <v>44441</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -504,7 +501,7 @@
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>44411</v>
+        <v>44442</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -521,7 +518,7 @@
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>44412</v>
+        <v>44443</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -538,7 +535,7 @@
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>44413</v>
+        <v>44444</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -555,10 +552,10 @@
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>44414</v>
+        <v>44445</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -572,7 +569,7 @@
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>44415</v>
+        <v>44446</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -589,7 +586,7 @@
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>44416</v>
+        <v>44447</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -606,10 +603,10 @@
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>44417</v>
+        <v>44448</v>
       </c>
       <c r="B10" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -624,10 +621,10 @@
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>44418</v>
+        <v>44449</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -642,7 +639,7 @@
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>44419</v>
+        <v>44450</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -660,7 +657,7 @@
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>44420</v>
+        <v>44451</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -678,7 +675,7 @@
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>44421</v>
+        <v>44452</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -696,7 +693,7 @@
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>44422</v>
+        <v>44453</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -714,7 +711,7 @@
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>44423</v>
+        <v>44454</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -732,10 +729,10 @@
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>44424</v>
+        <v>44455</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -750,7 +747,7 @@
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>44425</v>
+        <v>44456</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -768,7 +765,7 @@
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>44426</v>
+        <v>44457</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -786,7 +783,7 @@
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>44427</v>
+        <v>44458</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -804,10 +801,10 @@
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>44428</v>
+        <v>44459</v>
       </c>
       <c r="B21" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -821,7 +818,7 @@
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>44429</v>
+        <v>44460</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -838,7 +835,7 @@
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>44430</v>
+        <v>44461</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -855,10 +852,10 @@
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>44431</v>
+        <v>44462</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -872,7 +869,7 @@
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>44432</v>
+        <v>44463</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -889,7 +886,7 @@
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>44433</v>
+        <v>44464</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -906,7 +903,7 @@
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>44434</v>
+        <v>44465</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -923,10 +920,10 @@
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>44435</v>
+        <v>44466</v>
       </c>
       <c r="B28" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -940,7 +937,7 @@
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>44436</v>
+        <v>44467</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -957,10 +954,10 @@
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>44437</v>
+        <v>44468</v>
       </c>
       <c r="B30" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -974,7 +971,7 @@
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>44438</v>
+        <v>44469</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -990,38 +987,15 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>44439</v>
-      </c>
-      <c r="B32" s="1">
-        <v>20</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A32" s="3"/>
+      <c r="B32" s="1"/>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>44425</v>
-      </c>
-      <c r="B33" s="1">
-        <v>16</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A33" s="3"/>
+      <c r="B33" s="1"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>

--- a/src/algorithms/plan_fact_module/BMZ.xlsx
+++ b/src/algorithms/plan_fact_module/BMZ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9600" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="10800" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="8">
   <si>
     <t>CarAmount</t>
   </si>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F363"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B2:B31"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,7 +467,7 @@
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>44441</v>
+        <v>44471</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>44442</v>
+        <v>44472</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>44443</v>
+        <v>44473</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>44444</v>
+        <v>44474</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -552,10 +552,10 @@
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>44445</v>
+        <v>44475</v>
       </c>
       <c r="B7" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>44446</v>
+        <v>44476</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>44447</v>
+        <v>44477</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>44448</v>
+        <v>44478</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -621,10 +621,10 @@
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>44449</v>
+        <v>44479</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>44450</v>
+        <v>44480</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>44451</v>
+        <v>44481</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>44452</v>
+        <v>44482</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>44453</v>
+        <v>44483</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>44454</v>
+        <v>44484</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>44455</v>
+        <v>44485</v>
       </c>
       <c r="B17" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>44456</v>
+        <v>44486</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>44457</v>
+        <v>44487</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>44458</v>
+        <v>44488</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>44459</v>
+        <v>44489</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>44460</v>
+        <v>44490</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>44461</v>
+        <v>44491</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -852,10 +852,10 @@
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>44462</v>
+        <v>44492</v>
       </c>
       <c r="B24" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>44463</v>
+        <v>44493</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>44464</v>
+        <v>44494</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>44465</v>
+        <v>44495</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>44466</v>
+        <v>44496</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>44467</v>
+        <v>44497</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -954,10 +954,10 @@
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>44468</v>
+        <v>44498</v>
       </c>
       <c r="B30" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>44469</v>
+        <v>44499</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -987,160 +987,531 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="1"/>
-      <c r="E32" s="2"/>
+      <c r="A32" s="3">
+        <v>44500</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="1"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="2"/>
+      <c r="A33" s="3">
+        <v>44501</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="1"/>
-      <c r="E34" s="2"/>
+      <c r="A34" s="3">
+        <v>44502</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="1"/>
-      <c r="E35" s="2"/>
+      <c r="A35" s="3">
+        <v>44503</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="1"/>
-      <c r="E36" s="2"/>
+      <c r="A36" s="3">
+        <v>44504</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="1"/>
-      <c r="E37" s="2"/>
+      <c r="A37" s="3">
+        <v>44505</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="1"/>
-      <c r="E38" s="2"/>
+      <c r="A38" s="3">
+        <v>44506</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="1"/>
-      <c r="E39" s="2"/>
+      <c r="A39" s="3">
+        <v>44507</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="1"/>
-      <c r="E40" s="2"/>
+      <c r="A40" s="3">
+        <v>44508</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="1"/>
-      <c r="E41" s="2"/>
+      <c r="A41" s="3">
+        <v>44509</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="1"/>
-      <c r="E42" s="2"/>
+      <c r="A42" s="3">
+        <v>44510</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="1"/>
-      <c r="E43" s="2"/>
+      <c r="A43" s="3">
+        <v>44511</v>
+      </c>
+      <c r="B43" s="1">
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="1"/>
-      <c r="E44" s="2"/>
+      <c r="A44" s="3">
+        <v>44512</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="1"/>
-      <c r="E45" s="2"/>
+      <c r="A45" s="3">
+        <v>44513</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-      <c r="B46" s="1"/>
-      <c r="E46" s="2"/>
+      <c r="A46" s="3">
+        <v>44514</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="1"/>
-      <c r="E47" s="2"/>
+      <c r="A47" s="3">
+        <v>44515</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="1"/>
-      <c r="E48" s="2"/>
+      <c r="A48" s="3">
+        <v>44516</v>
+      </c>
+      <c r="B48" s="1">
+        <v>30</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="1"/>
-      <c r="E49" s="2"/>
+      <c r="A49" s="3">
+        <v>44517</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="1"/>
-      <c r="E50" s="2"/>
+      <c r="A50" s="3">
+        <v>44518</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
-      <c r="B51" s="1"/>
-      <c r="E51" s="2"/>
+      <c r="A51" s="3">
+        <v>44519</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
-      <c r="B52" s="1"/>
-      <c r="E52" s="2"/>
+      <c r="A52" s="3">
+        <v>44520</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A53" s="3"/>
-      <c r="B53" s="1"/>
-      <c r="E53" s="2"/>
+      <c r="A53" s="3">
+        <v>44521</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="54" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
-      <c r="B54" s="1"/>
-      <c r="E54" s="2"/>
+      <c r="A54" s="3">
+        <v>44522</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A55" s="3"/>
-      <c r="B55" s="1"/>
-      <c r="E55" s="2"/>
+      <c r="A55" s="3">
+        <v>44523</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A56" s="3"/>
-      <c r="B56" s="1"/>
-      <c r="E56" s="2"/>
+      <c r="A56" s="3">
+        <v>44524</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A57" s="3"/>
-      <c r="B57" s="1"/>
-      <c r="E57" s="2"/>
+      <c r="A57" s="3">
+        <v>44525</v>
+      </c>
+      <c r="B57" s="1">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="58" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A58" s="3"/>
-      <c r="B58" s="1"/>
-      <c r="E58" s="2"/>
+      <c r="A58" s="3">
+        <v>44526</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A59" s="3"/>
-      <c r="B59" s="1"/>
-      <c r="E59" s="2"/>
+      <c r="A59" s="3">
+        <v>44527</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A60" s="3"/>
-      <c r="B60" s="1"/>
-      <c r="E60" s="2"/>
+      <c r="A60" s="3">
+        <v>44528</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A61" s="3"/>
-      <c r="B61" s="1"/>
-      <c r="E61" s="2"/>
+      <c r="A61" s="3">
+        <v>44529</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="62" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
-      <c r="B62" s="1"/>
-      <c r="E62" s="2"/>
+      <c r="A62" s="3">
+        <v>44530</v>
+      </c>
+      <c r="B62" s="1">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
